--- a/code-Python/code_self/data/data2.xlsx
+++ b/code-Python/code_self/data/data2.xlsx
@@ -15,9 +15,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -54,9 +51,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -361,115 +357,225 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="A1:XFD1048576"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>6.2857142857142856</v>
-      </c>
-      <c r="B1" s="1">
-        <v>17.857142857142858</v>
-      </c>
-      <c r="C1" s="1">
-        <v>6.8571428571428568</v>
+      <c r="A1">
+        <v>8</v>
+      </c>
+      <c r="B1">
+        <v>14</v>
+      </c>
+      <c r="C1">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>17.714285714285715</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1">
-        <v>18.428571428571427</v>
+      <c r="A2">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>6.5714285714285712</v>
-      </c>
-      <c r="B3" s="1">
-        <v>18.571428571428573</v>
-      </c>
-      <c r="C3" s="1">
-        <v>6.4285714285714288</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>7.8571428571428568</v>
-      </c>
-      <c r="B5" s="1">
-        <v>22.142857142857142</v>
-      </c>
-      <c r="C5" s="1">
-        <v>8.8571428571428577</v>
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>1.7142857142857142</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1">
-        <v>1.8571428571428572</v>
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>8.5714285714285712</v>
-      </c>
-      <c r="B7" s="1">
-        <v>23.428571428571427</v>
-      </c>
-      <c r="C7" s="1">
-        <v>8.4285714285714288</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>9.4285714285714288</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1.7142857142857142</v>
-      </c>
-      <c r="C9" s="1">
-        <v>8.7142857142857135</v>
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>31</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>22.571428571428573</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1">
-        <v>22.285714285714285</v>
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>8.4285714285714288</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1.4285714285714286</v>
-      </c>
-      <c r="C11" s="1">
-        <v>9.8571428571428577</v>
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>31</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>29</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
